--- a/public/assets/result/Urifa_3.xlsx
+++ b/public/assets/result/Urifa_3.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="46">
   <si>
     <t>REPUBLIK INDONESIA</t>
   </si>
@@ -151,13 +151,10 @@
     <t>PML</t>
   </si>
   <si>
-    <t>s</t>
-  </si>
-  <si>
     <t>WAHYU RAZI INDRAWAN</t>
   </si>
   <si>
-    <t>SUMIATI</t>
+    <t>URIFA</t>
   </si>
 </sst>
 </file>
@@ -910,16 +907,16 @@
         <v>24</v>
       </c>
       <c r="I13" s="5">
+        <v>4</v>
+      </c>
+      <c r="J13" s="5">
         <v>5</v>
       </c>
-      <c r="J13" s="5">
-        <v>7</v>
-      </c>
       <c r="K13" s="5">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="L13" s="5">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M13" s="5">
         <v>2</v>
@@ -984,16 +981,16 @@
         <v>24</v>
       </c>
       <c r="I15" s="5">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="J15" s="5">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="K15" s="5">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="L15" s="5">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="M15" s="5">
         <v>2</v>
@@ -1021,19 +1018,19 @@
         <v>28</v>
       </c>
       <c r="I16" s="5">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="J16" s="5">
-        <v>60</v>
+        <v>28</v>
       </c>
       <c r="K16" s="5">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="L16" s="5">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="M16" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N16"/>
     </row>
@@ -1095,16 +1092,16 @@
         <v>30</v>
       </c>
       <c r="I18" s="5">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="J18" s="5">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="K18" s="5">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="L18" s="5">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="M18" s="5">
         <v>2</v>
@@ -1132,19 +1129,19 @@
         <v>33</v>
       </c>
       <c r="I19" s="5">
-        <v>41</v>
+        <v>0</v>
       </c>
       <c r="J19" s="5">
-        <v>63</v>
+        <v>1</v>
       </c>
       <c r="K19" s="5">
-        <v>45</v>
+        <v>1</v>
       </c>
       <c r="L19" s="5">
-        <v>45</v>
+        <v>1</v>
       </c>
       <c r="M19" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N19"/>
     </row>
@@ -1206,16 +1203,16 @@
         <v>27</v>
       </c>
       <c r="I21" s="5">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="J21" s="5">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="K21" s="5">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="L21" s="5">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="M21" s="5">
         <v>2</v>
@@ -1243,16 +1240,16 @@
         <v>28</v>
       </c>
       <c r="I22" s="5">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="J22" s="5">
-        <v>39</v>
+        <v>11</v>
       </c>
       <c r="K22" s="5">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="L22" s="5">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="M22" s="5">
         <v>2</v>
@@ -1280,16 +1277,16 @@
         <v>30</v>
       </c>
       <c r="I23" s="5">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="J23" s="5">
-        <v>50</v>
+        <v>11</v>
       </c>
       <c r="K23" s="5">
-        <v>36</v>
+        <v>8</v>
       </c>
       <c r="L23" s="5">
-        <v>35</v>
+        <v>8</v>
       </c>
       <c r="M23" s="5">
         <v>2</v>
@@ -1354,16 +1351,16 @@
         <v>28</v>
       </c>
       <c r="I25" s="5">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="J25" s="5">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="K25" s="5">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="L25" s="5">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="M25" s="5">
         <v>2</v>
@@ -1391,19 +1388,19 @@
         <v>33</v>
       </c>
       <c r="I26" s="5">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="J26" s="5">
-        <v>58</v>
+        <v>39</v>
       </c>
       <c r="K26" s="5">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="L26" s="5">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="M26" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N26"/>
     </row>
@@ -1452,9 +1449,7 @@
       <c r="N31" s="1"/>
     </row>
     <row r="32" spans="1:14">
-      <c r="K32" s="4" t="s">
-        <v>44</v>
-      </c>
+      <c r="K32" s="4"/>
       <c r="L32" s="4"/>
       <c r="N32" s="1"/>
     </row>
@@ -1470,10 +1465,10 @@
     </row>
     <row r="35" spans="1:14">
       <c r="D35" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="K35" s="4" t="s">
         <v>45</v>
-      </c>
-      <c r="K35" s="4" t="s">
-        <v>46</v>
       </c>
       <c r="L35" s="4"/>
       <c r="N35" s="1"/>
